--- a/assets/results/NH_result.xlsx
+++ b/assets/results/NH_result.xlsx
@@ -7,14 +7,23 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Belknap County" sheetId="1" r:id="rId1"/>
+    <sheet name="Coos County" sheetId="2" r:id="rId2"/>
+    <sheet name="Merrimack County" sheetId="3" r:id="rId3"/>
+    <sheet name="Sullivan County" sheetId="4" r:id="rId4"/>
+    <sheet name="Carroll County" sheetId="5" r:id="rId5"/>
+    <sheet name="Cheshire County" sheetId="6" r:id="rId6"/>
+    <sheet name="Grafton County" sheetId="7" r:id="rId7"/>
+    <sheet name="Hillsborough County" sheetId="8" r:id="rId8"/>
+    <sheet name="Rockingham County" sheetId="9" r:id="rId9"/>
+    <sheet name="Strafford County" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="74">
   <si>
     <t>question</t>
   </si>
@@ -175,13 +184,67 @@
     <t>Ratio of Native Americans to whites with health insurance</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Belknap County</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Coos County</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Merrimack County</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Sullivan County</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Carroll County</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Cheshire County</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Grafton County</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Hillsborough County</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Rockingham County</t>
+  </si>
+  <si>
     <t>017</t>
   </si>
   <si>
     <t>Strafford County</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -583,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>130161</v>
+        <v>61174</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -594,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>117151</v>
+        <v>57849</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -605,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1317</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -616,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -627,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>4566</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -638,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3451</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -649,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>74796</v>
+        <v>32784</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -660,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>68.2</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -671,7 +734,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>47.1</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -682,7 +745,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>79.59999999999999</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -693,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>68.5</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -704,7 +767,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>76.5</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -715,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.690615835777126</v>
+        <v>0.8596214511041009</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -726,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>3.293255131964809</v>
+        <v>3.27602523659306</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -737,7 +800,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>27474</v>
+        <v>11863</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -770,7 +833,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>112.3023255813954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -781,7 +844,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1260.717474980755</v>
+        <v>253.4638783269962</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -792,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>2926.514955537591</v>
+        <v>456.7755102040817</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -814,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.1245513554791905</v>
+        <v>0.04510242726803236</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -825,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>35309</v>
+        <v>35884</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -836,7 +899,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>35893</v>
+        <v>36301</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -847,7 +910,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>27256</v>
+        <v>-666666666</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -858,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-666666666</v>
+        <v>21534</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -869,7 +932,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>34271</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -880,7 +943,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>34283</v>
+        <v>31189</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -891,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>30226</v>
+        <v>14456</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -913,7 +976,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>17.6</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -924,7 +987,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>6.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -935,7 +998,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>44.9</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -946,7 +1009,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>39.1</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -967,8 +1030,8 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C39">
-        <v>9</v>
+      <c r="C39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -979,7 +1042,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -990,7 +1053,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>12.1</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1001,7 +1064,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>68.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1012,7 +1075,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>16.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1023,7 +1086,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1034,7 +1097,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>7.930232558139536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1045,7 +1108,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>94.2</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1056,7 +1119,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>94.40000000000001</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1067,7 +1130,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>91.3</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1078,7 +1141,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>72.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1089,7 +1152,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>85.09999999999999</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1100,7 +1163,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>96.2</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1111,7 +1174,5245 @@
         <v>52</v>
       </c>
       <c r="C52">
+        <v>1.071811361200429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>130161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>117151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>74796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>79.59999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.690615835777126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.293255131964809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>27474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>112.3023255813954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>1260.717474980755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>2926.514955537591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1245513554791905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>35309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>35893</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>27256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>34271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>34283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>30226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>7.930232558139536</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>94.40000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>85.09999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
         <v>0.7722457627118644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>31486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>29677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>15229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.3100511073253833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1.73083475298126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>22.09895052473763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>67.33766233766234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>46.0040899795501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0002226179875333927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.02693677649154052</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>30922</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>31217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>7179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>55929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>91.90000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>91.09999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.08695652173913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>150902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>138724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>82537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>65.90000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.928679817905918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.82701062215478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>32129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>53.13968957871396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>553.48794489093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>966.4232164449819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>2055.323375050464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.00149827372809589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.08722558790958244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>40481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>41020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>22674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>26148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>30645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>27146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>38633</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.596774193548387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>82.09999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8687830687830688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>43173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>40774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>21378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.697792869269949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.185059422750424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>7215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>15.09677419354839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>30.24896265560166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>149.7993920972644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001892836342457775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.06290040768782761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>40221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>40118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>62770</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>35347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>9550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>92.90000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.077586206896552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>48461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>46288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>25663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1.925566343042071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>8634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>112.8169014084507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>441.1202749140894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.05021834061135371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>33825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>34071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>33576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>35893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>14058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>92.09999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.084598698481562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>76040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>71399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>40983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>69.59999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.7824726134585289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.403755868544601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>15349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>50.11494252873563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>218.890756302521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1430.680701754386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0008042895442359249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.08934316353887399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>33062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>33599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>21684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>23529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>17963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>18044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>36.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>4.250000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>96.40000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.066098081023454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>90331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>81200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>47982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>65.90000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.250809061488673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.771844660194175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>19436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>24.73846153846154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>385.2332657200811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>914.0756001433178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1548.324873096447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001341606573872212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1304153390351613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>33668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>34770</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>24397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>27292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>28903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>23993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>26905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0.8369565217391305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>92.90000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9721329046087889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>415305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>347545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>11349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>17287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>29387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>239253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>70.59999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.151515151515152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.248196248196248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>96663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>55.80269058295964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>3000.249416160673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>5752.335791223884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>22441.66073697586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0005798881157047346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.2557533997362078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>42770</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>31518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>22133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>40237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>31094</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>113726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.258064516129032</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>92.59999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.5646687697160884</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>308211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>283422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>6231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>180402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>75.40000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>75.90000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.424501424501424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.256410256410256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>77704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>22.2972972972973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>964.1411764705882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2847.903614457831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>7846.742127659575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0002728848016809704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1210516980256785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>48176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>48533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>40750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>55581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>38819</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>94312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>90.09999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>94.59999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.6146596858638744</v>
       </c>
     </row>
   </sheetData>
